--- a/Projects/Motor controller/BOM_motor_controller.xlsx
+++ b/Projects/Motor controller/BOM_motor_controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luana\Documents\GitHub\MarsRover2019-PCB\Projects\Motor controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7A9424-9414-437E-9740-D79ED5140C60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC9B213-50B3-45CE-8793-BA0E4BB163C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1404" yWindow="348" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="1824" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="motor_controller_BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
   <si>
     <t>Quantity</t>
   </si>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>https://www.digikey.ca/product-detail/en/nexperia-usa-inc/BUK765R3-40E118/1727-7255-1-ND/3672520</t>
+  </si>
+  <si>
+    <t>SN74AHC1G02DBVT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/texas-instruments/SN74AHC1G02DBVT/296-49867-1-ND/9462743 </t>
+  </si>
+  <si>
+    <t>74LVC1G3157GW,125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/nexperia-usa-inc/74LVC1G3157GW125/1727-6073-1-ND/2753909 </t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1748,10 +1760,47 @@
         <v>23.13</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H20" r:id="rId1" xr:uid="{BDD326CE-AD66-488C-A8FE-41897F124881}"/>
+    <hyperlink ref="H25" r:id="rId2" xr:uid="{08397809-92A6-43BE-BBA6-8AD77F7EAC3B}"/>
+    <hyperlink ref="H26" r:id="rId3" xr:uid="{40D7FEAE-85A3-428E-A2F9-402109445936}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>